--- a/Parâmetros.55Cnc.b.xlsx
+++ b/Parâmetros.55Cnc.b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABFD26-AFD0-4C83-9731-BCCA7E89275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC136E9-940F-4B7C-8AB1-80CBCE238B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="660" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>raio</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
+  </si>
+  <si>
+    <t>plotGrafico</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Nota" xfId="3" builtinId="10"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,34 +742,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -833,8 +836,11 @@
       <c r="W1" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="6">
         <v>1000</v>
       </c>
@@ -901,8 +907,11 @@
       <c r="W2" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -925,7 +934,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -948,7 +957,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -971,7 +980,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -994,7 +1003,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1017,7 +1026,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1040,7 +1049,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1063,7 +1072,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1086,7 +1095,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1109,7 +1118,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1121,107 +1130,107 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
